--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129F324B-84B0-41C3-BEB0-3392EC248023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{129F324B-84B0-41C3-BEB0-3392EC248023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2AC7DB6-67C6-43B2-9E31-B82B85220C5B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>SlNo</t>
   </si>
@@ -175,6 +175,21 @@
   </si>
   <si>
     <t>2hr</t>
+  </si>
+  <si>
+    <t>Traning</t>
+  </si>
+  <si>
+    <t>Dynamic Webpage creation(concepts)</t>
+  </si>
+  <si>
+    <t>Abstract , Interface concepts</t>
+  </si>
+  <si>
+    <t>3 hrs</t>
+  </si>
+  <si>
+    <t>Exception handing Concepts</t>
   </si>
 </sst>
 </file>
@@ -395,6 +410,13 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,13 +426,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9EF7C2-54DF-4460-B045-838F2FAAEF49}">
   <dimension ref="C2:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -746,28 +761,28 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="3:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1212,28 +1227,60 @@
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C31" s="3"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="3">
+        <v>27</v>
+      </c>
+      <c r="D31" s="12">
+        <v>44361</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C32" s="3"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="4"/>
+      <c r="C32" s="3">
+        <v>28</v>
+      </c>
+      <c r="D32" s="12">
+        <v>44361</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C33" s="3"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="4"/>
+      <c r="C33" s="3">
+        <v>29</v>
+      </c>
+      <c r="D33" s="12">
+        <v>44361</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C34" s="3"/>
+      <c r="C34" s="3">
+        <v>30</v>
+      </c>
       <c r="D34" s="13"/>
       <c r="E34" s="2"/>
       <c r="F34" s="9"/>

--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{129F324B-84B0-41C3-BEB0-3392EC248023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2AC7DB6-67C6-43B2-9E31-B82B85220C5B}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{129F324B-84B0-41C3-BEB0-3392EC248023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B343327-57AF-4D23-9511-2878DDC8E411}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t>SlNo</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>Exception handing Concepts</t>
+  </si>
+  <si>
+    <t>CSS and HTML</t>
+  </si>
+  <si>
+    <t>1hrs</t>
   </si>
 </sst>
 </file>
@@ -743,7 +749,7 @@
   <dimension ref="C2:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1281,24 +1287,52 @@
       <c r="C34" s="3">
         <v>30</v>
       </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="4"/>
+      <c r="D34" s="12">
+        <v>44362</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C35" s="3"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="4"/>
+      <c r="C35" s="3">
+        <v>31</v>
+      </c>
+      <c r="D35" s="12">
+        <v>44211</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C36" s="3"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="4"/>
+      <c r="C36" s="3">
+        <v>32</v>
+      </c>
+      <c r="D36" s="12">
+        <v>44211</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37" s="3"/>

--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{129F324B-84B0-41C3-BEB0-3392EC248023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B343327-57AF-4D23-9511-2878DDC8E411}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{129F324B-84B0-41C3-BEB0-3392EC248023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED7A7CDF-E2CD-46C9-9202-1E9A5B8BEC84}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
   <si>
     <t>SlNo</t>
   </si>
@@ -196,6 +196,24 @@
   </si>
   <si>
     <t>1hrs</t>
+  </si>
+  <si>
+    <t>HTML anCSS concepts</t>
+  </si>
+  <si>
+    <t>4 hrs</t>
+  </si>
+  <si>
+    <t>Learing</t>
+  </si>
+  <si>
+    <t>Learn Dynamic Website Concepts</t>
+  </si>
+  <si>
+    <t>Thread concepts</t>
+  </si>
+  <si>
+    <t>1 hrs</t>
   </si>
 </sst>
 </file>
@@ -748,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9EF7C2-54DF-4460-B045-838F2FAAEF49}">
   <dimension ref="C2:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,25 +1353,53 @@
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C37" s="3"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="3">
+        <v>33</v>
+      </c>
+      <c r="D37" s="12">
+        <v>44212</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="38" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C38" s="3"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="4"/>
+      <c r="C38" s="3">
+        <v>34</v>
+      </c>
+      <c r="D38" s="12">
+        <v>44212</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C39" s="3"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="4"/>
+      <c r="D39" s="12">
+        <v>44212</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C40" s="3"/>

--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{129F324B-84B0-41C3-BEB0-3392EC248023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED7A7CDF-E2CD-46C9-9202-1E9A5B8BEC84}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1913BB-E2DA-4985-9DAA-9F1263905A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
   <si>
     <t>SlNo</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t>1 hrs</t>
+  </si>
+  <si>
+    <t>JBPM Overview and ontroduction section</t>
+  </si>
+  <si>
+    <t>JBPM concepts and install software</t>
+  </si>
+  <si>
+    <t>4hrs</t>
   </si>
 </sst>
 </file>
@@ -766,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9EF7C2-54DF-4460-B045-838F2FAAEF49}">
   <dimension ref="C2:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1323,7 +1332,7 @@
         <v>31</v>
       </c>
       <c r="D35" s="12">
-        <v>44211</v>
+        <v>44362</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>9</v>
@@ -1340,7 +1349,7 @@
         <v>32</v>
       </c>
       <c r="D36" s="12">
-        <v>44211</v>
+        <v>44362</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>9</v>
@@ -1357,7 +1366,7 @@
         <v>33</v>
       </c>
       <c r="D37" s="12">
-        <v>44212</v>
+        <v>44363</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>50</v>
@@ -1374,7 +1383,7 @@
         <v>34</v>
       </c>
       <c r="D38" s="12">
-        <v>44212</v>
+        <v>44363</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>59</v>
@@ -1387,9 +1396,11 @@
       </c>
     </row>
     <row r="39" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C39" s="3"/>
+      <c r="C39" s="3">
+        <v>35</v>
+      </c>
       <c r="D39" s="12">
-        <v>44212</v>
+        <v>44363</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>59</v>
@@ -1402,28 +1413,60 @@
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C40" s="3"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="4"/>
+      <c r="C40" s="3">
+        <v>36</v>
+      </c>
+      <c r="D40" s="12">
+        <v>44364</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="41" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C41" s="3"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="4"/>
+      <c r="C41" s="3">
+        <v>37</v>
+      </c>
+      <c r="D41" s="12">
+        <v>44364</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="42" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C42" s="3"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="4"/>
+      <c r="C42" s="3">
+        <v>38</v>
+      </c>
+      <c r="D42" s="12">
+        <v>44364</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C43" s="3"/>
+      <c r="C43" s="3">
+        <v>39</v>
+      </c>
       <c r="D43" s="13"/>
       <c r="E43" s="2"/>
       <c r="F43" s="9"/>

--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1913BB-E2DA-4985-9DAA-9F1263905A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CBA29C-6491-49EF-BA32-0376128C1A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
   <si>
     <t>SlNo</t>
   </si>
@@ -223,6 +223,27 @@
   </si>
   <si>
     <t>4hrs</t>
+  </si>
+  <si>
+    <t>Java Training</t>
+  </si>
+  <si>
+    <t>ArrayList concepts</t>
+  </si>
+  <si>
+    <t>Throw and Throws and SuperKeyword</t>
+  </si>
+  <si>
+    <t>JBPM Training</t>
+  </si>
+  <si>
+    <t>Simple Demo(JBPM dia)</t>
+  </si>
+  <si>
+    <t>ArrayList Program</t>
+  </si>
+  <si>
+    <t>learing</t>
   </si>
 </sst>
 </file>
@@ -776,7 +797,7 @@
   <dimension ref="C2:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1467,45 +1488,103 @@
       <c r="C43" s="3">
         <v>39</v>
       </c>
-      <c r="D43" s="13"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="4"/>
+      <c r="D43" s="12">
+        <v>44365</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="44" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C44" s="3"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="4"/>
+      <c r="C44" s="3">
+        <v>40</v>
+      </c>
+      <c r="D44" s="12">
+        <v>44365</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="45" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C45" s="3"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="4"/>
+      <c r="C45" s="3">
+        <v>41</v>
+      </c>
+      <c r="D45" s="12">
+        <v>44365</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="46" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C46" s="3"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="4"/>
+      <c r="C46" s="3">
+        <v>42</v>
+      </c>
+      <c r="D46" s="12">
+        <v>44366</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="47" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C47" s="3"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="4"/>
+      <c r="C47" s="3">
+        <v>43</v>
+      </c>
+      <c r="D47" s="12">
+        <v>44366</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="48" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C48" s="3"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="4"/>
+      <c r="C48" s="3">
+        <v>44</v>
+      </c>
+      <c r="D48" s="12">
+        <v>44366</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C49" s="3"/>

--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CBA29C-6491-49EF-BA32-0376128C1A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{06CBA29C-6491-49EF-BA32-0376128C1A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D219F1C-A992-4911-8424-D28A22B0C782}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
   <si>
     <t>SlNo</t>
   </si>
@@ -244,6 +244,15 @@
   </si>
   <si>
     <t>learing</t>
+  </si>
+  <si>
+    <t>Collection concepts(List,set.ArrayList)</t>
+  </si>
+  <si>
+    <t>Create New project(JBPM)</t>
+  </si>
+  <si>
+    <t>New Task Create Function</t>
   </si>
 </sst>
 </file>
@@ -797,7 +806,7 @@
   <dimension ref="C2:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1587,25 +1596,55 @@
       </c>
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C49" s="3"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="4"/>
+      <c r="C49" s="3">
+        <v>45</v>
+      </c>
+      <c r="D49" s="12">
+        <v>44368</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="50" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C50" s="3"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="4"/>
+      <c r="C50" s="3">
+        <v>46</v>
+      </c>
+      <c r="D50" s="12">
+        <v>44368</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="51" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C51" s="3"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="4"/>
+      <c r="C51" s="3">
+        <v>47</v>
+      </c>
+      <c r="D51" s="12">
+        <v>44368</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="52" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C52" s="3"/>

--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{06CBA29C-6491-49EF-BA32-0376128C1A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D219F1C-A992-4911-8424-D28A22B0C782}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{06CBA29C-6491-49EF-BA32-0376128C1A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E575F4D5-249E-4AD4-B23A-10A002FAAE21}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="78">
   <si>
     <t>SlNo</t>
   </si>
@@ -204,9 +204,6 @@
     <t>4 hrs</t>
   </si>
   <si>
-    <t>Learing</t>
-  </si>
-  <si>
     <t>Learn Dynamic Website Concepts</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>ArrayList Program</t>
   </si>
   <si>
-    <t>learing</t>
-  </si>
-  <si>
     <t>Collection concepts(List,set.ArrayList)</t>
   </si>
   <si>
@@ -253,6 +247,18 @@
   </si>
   <si>
     <t>New Task Create Function</t>
+  </si>
+  <si>
+    <t>Java( Collection Hash Map,ListIterator)</t>
+  </si>
+  <si>
+    <t>JBPM(Update remove and username and password changes function)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Json and Maven Repository </t>
+  </si>
+  <si>
+    <t>update and Delete function (Demoproject)</t>
   </si>
 </sst>
 </file>
@@ -451,15 +457,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -479,7 +483,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -488,6 +491,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,47 +820,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9EF7C2-54DF-4460-B045-838F2FAAEF49}">
   <dimension ref="C2:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="46.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="6" max="6" width="46.88671875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="40" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="3:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="21" t="s">
         <v>4</v>
       </c>
     </row>
@@ -853,16 +867,16 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>44351</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -870,16 +884,16 @@
       <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>44351</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -887,16 +901,16 @@
       <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>44351</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="22" t="s">
         <v>49</v>
       </c>
     </row>
@@ -904,16 +918,16 @@
       <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>44352</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -921,16 +935,16 @@
       <c r="C9" s="3">
         <v>5</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>44352</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="22" t="s">
         <v>15</v>
       </c>
     </row>
@@ -938,16 +952,16 @@
       <c r="C10" s="3">
         <v>6</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>44352</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -955,16 +969,16 @@
       <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>44354</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="22" t="s">
         <v>15</v>
       </c>
     </row>
@@ -972,16 +986,16 @@
       <c r="C12" s="3">
         <v>8</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>44354</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -989,16 +1003,16 @@
       <c r="C13" s="3">
         <v>9</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>44354</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="22" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1006,16 +1020,16 @@
       <c r="C14" s="3">
         <v>10</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>44354</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="22" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1023,16 +1037,16 @@
       <c r="C15" s="3">
         <v>11</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>44354</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1040,16 +1054,16 @@
       <c r="C16" s="3">
         <v>12</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="10">
         <v>44355</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="22" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1057,16 +1071,16 @@
       <c r="C17" s="3">
         <v>13</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="10">
         <v>44355</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1074,16 +1088,16 @@
       <c r="C18" s="3">
         <v>14</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="10">
         <v>44355</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="22" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1091,16 +1105,16 @@
       <c r="C19" s="3">
         <v>15</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="10">
         <v>44355</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="22" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1108,16 +1122,16 @@
       <c r="C20" s="3">
         <v>16</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="10">
         <v>44356</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="22" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1125,16 +1139,16 @@
       <c r="C21" s="3">
         <v>17</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="10">
         <v>44356</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1142,31 +1156,31 @@
       <c r="C22" s="3">
         <v>18</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="10">
         <v>44356</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="22"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <v>19</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="10">
         <v>44357</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="22" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1174,16 +1188,16 @@
       <c r="C24" s="3">
         <v>20</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="10">
         <v>44357</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1191,16 +1205,16 @@
       <c r="C25" s="3">
         <v>21</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="10">
         <v>44357</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1208,16 +1222,16 @@
       <c r="C26" s="3">
         <v>22</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="10">
         <v>44357</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1225,16 +1239,16 @@
       <c r="C27" s="3">
         <v>23</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="10">
         <v>44358</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="G27" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1242,16 +1256,16 @@
       <c r="C28" s="3">
         <v>24</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="10">
         <v>44358</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1259,16 +1273,16 @@
       <c r="C29" s="3">
         <v>25</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="10">
         <v>44358</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1276,16 +1290,16 @@
       <c r="C30" s="3">
         <v>26</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="10">
         <v>44359</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1293,16 +1307,16 @@
       <c r="C31" s="3">
         <v>27</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="10">
         <v>44361</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="22" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1310,16 +1324,16 @@
       <c r="C32" s="3">
         <v>28</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="10">
         <v>44361</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="22" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1327,16 +1341,16 @@
       <c r="C33" s="3">
         <v>29</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="10">
         <v>44361</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1344,16 +1358,16 @@
       <c r="C34" s="3">
         <v>30</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="10">
         <v>44362</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="22" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1361,16 +1375,16 @@
       <c r="C35" s="3">
         <v>31</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="10">
         <v>44362</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1378,16 +1392,16 @@
       <c r="C36" s="3">
         <v>32</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="10">
         <v>44362</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="22" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1395,16 +1409,16 @@
       <c r="C37" s="3">
         <v>33</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="10">
         <v>44363</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="22" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1412,16 +1426,16 @@
       <c r="C38" s="3">
         <v>34</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="10">
         <v>44363</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1429,33 +1443,33 @@
       <c r="C39" s="3">
         <v>35</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="10">
         <v>44363</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="40" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C40" s="3">
         <v>36</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="10">
         <v>44364</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="22" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1463,16 +1477,16 @@
       <c r="C41" s="3">
         <v>37</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="10">
         <v>44364</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="G41" s="4" t="s">
+      <c r="F41" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1480,33 +1494,33 @@
       <c r="C42" s="3">
         <v>38</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="10">
         <v>44364</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="43" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C43" s="3">
         <v>39</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="10">
         <v>44365</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G43" s="4" t="s">
+      <c r="F43" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1514,16 +1528,16 @@
       <c r="C44" s="3">
         <v>40</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="10">
         <v>44365</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1531,16 +1545,16 @@
       <c r="C45" s="3">
         <v>41</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="10">
         <v>44365</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1548,16 +1562,16 @@
       <c r="C46" s="3">
         <v>42</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="10">
         <v>44366</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G46" s="4" t="s">
+      <c r="F46" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" s="22" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1565,16 +1579,16 @@
       <c r="C47" s="3">
         <v>43</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="10">
         <v>44366</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="22" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1582,16 +1596,16 @@
       <c r="C48" s="3">
         <v>44</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="10">
         <v>44366</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G48" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="22" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1599,16 +1613,16 @@
       <c r="C49" s="3">
         <v>45</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="10">
         <v>44368</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G49" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1616,16 +1630,16 @@
       <c r="C50" s="3">
         <v>46</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="10">
         <v>44368</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G50" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1633,683 +1647,723 @@
       <c r="C51" s="3">
         <v>47</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="10">
         <v>44368</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C52" s="3">
+        <v>48</v>
+      </c>
+      <c r="D52" s="10">
+        <v>44369</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G52" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C53" s="3">
+        <v>49</v>
+      </c>
+      <c r="D53" s="10">
+        <v>44369</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C52" s="3"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C53" s="3"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="4"/>
+      <c r="G53" s="22">
+        <v>2</v>
+      </c>
     </row>
     <row r="54" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C54" s="3"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="4"/>
+      <c r="C54" s="3">
+        <v>50</v>
+      </c>
+      <c r="D54" s="10">
+        <v>44369</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="22">
+        <v>4</v>
+      </c>
     </row>
     <row r="55" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C55" s="3"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="4"/>
+      <c r="C55" s="3">
+        <v>51</v>
+      </c>
+      <c r="D55" s="10">
+        <v>44369</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55" s="22">
+        <v>2</v>
+      </c>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C56" s="3"/>
-      <c r="D56" s="13"/>
+      <c r="D56" s="10"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="4"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="22"/>
     </row>
     <row r="57" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C57" s="3"/>
-      <c r="D57" s="13"/>
+      <c r="D57" s="11"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="4"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="22"/>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C58" s="3"/>
-      <c r="D58" s="13"/>
+      <c r="D58" s="11"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="4"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="22"/>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C59" s="3"/>
-      <c r="D59" s="13"/>
+      <c r="D59" s="11"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="4"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="22"/>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C60" s="3"/>
-      <c r="D60" s="13"/>
+      <c r="D60" s="11"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="4"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="22"/>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C61" s="3"/>
-      <c r="D61" s="13"/>
+      <c r="D61" s="11"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="4"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="22"/>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C62" s="3"/>
-      <c r="D62" s="13"/>
+      <c r="D62" s="11"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="4"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="22"/>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C63" s="3"/>
-      <c r="D63" s="13"/>
+      <c r="D63" s="11"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="4"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="22"/>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C64" s="3"/>
-      <c r="D64" s="13"/>
+      <c r="D64" s="11"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="4"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="22"/>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C65" s="3"/>
-      <c r="D65" s="13"/>
+      <c r="D65" s="11"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="4"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="22"/>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C66" s="3"/>
-      <c r="D66" s="13"/>
+      <c r="D66" s="11"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="4"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="22"/>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C67" s="3"/>
-      <c r="D67" s="13"/>
+      <c r="D67" s="11"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="4"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="22"/>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C68" s="3"/>
-      <c r="D68" s="13"/>
+      <c r="D68" s="11"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="4"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="22"/>
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C69" s="3"/>
-      <c r="D69" s="13"/>
+      <c r="D69" s="11"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="4"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="22"/>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C70" s="3"/>
-      <c r="D70" s="13"/>
+      <c r="D70" s="11"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="4"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="22"/>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C71" s="3"/>
-      <c r="D71" s="13"/>
+      <c r="D71" s="11"/>
       <c r="E71" s="2"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="4"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="22"/>
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C72" s="3"/>
-      <c r="D72" s="13"/>
+      <c r="D72" s="11"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="4"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="22"/>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C73" s="3"/>
-      <c r="D73" s="13"/>
+      <c r="D73" s="11"/>
       <c r="E73" s="2"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="4"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="22"/>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C74" s="3"/>
-      <c r="D74" s="13"/>
+      <c r="D74" s="11"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="4"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="22"/>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C75" s="3"/>
-      <c r="D75" s="13"/>
+      <c r="D75" s="11"/>
       <c r="E75" s="2"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="4"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="22"/>
     </row>
     <row r="76" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C76" s="3"/>
-      <c r="D76" s="13"/>
+      <c r="D76" s="11"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="4"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="22"/>
     </row>
     <row r="77" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C77" s="3"/>
-      <c r="D77" s="13"/>
+      <c r="D77" s="11"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="4"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="22"/>
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C78" s="3"/>
-      <c r="D78" s="13"/>
+      <c r="D78" s="11"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="4"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="22"/>
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C79" s="3"/>
-      <c r="D79" s="13"/>
+      <c r="D79" s="11"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="4"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="22"/>
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C80" s="3"/>
-      <c r="D80" s="13"/>
+      <c r="D80" s="11"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="4"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="22"/>
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C81" s="3"/>
-      <c r="D81" s="13"/>
+      <c r="D81" s="11"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="4"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="22"/>
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C82" s="3"/>
-      <c r="D82" s="13"/>
+      <c r="D82" s="11"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="4"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="22"/>
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C83" s="3"/>
-      <c r="D83" s="13"/>
+      <c r="D83" s="11"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="4"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="22"/>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C84" s="3"/>
-      <c r="D84" s="13"/>
+      <c r="D84" s="11"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="4"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="22"/>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C85" s="3"/>
-      <c r="D85" s="13"/>
+      <c r="D85" s="11"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="4"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="22"/>
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C86" s="3"/>
-      <c r="D86" s="13"/>
+      <c r="D86" s="11"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="4"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="22"/>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C87" s="3"/>
-      <c r="D87" s="13"/>
+      <c r="D87" s="11"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="4"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="22"/>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C88" s="3"/>
-      <c r="D88" s="13"/>
+      <c r="D88" s="11"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="4"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="22"/>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C89" s="3"/>
-      <c r="D89" s="13"/>
+      <c r="D89" s="11"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="4"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="22"/>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C90" s="3"/>
-      <c r="D90" s="13"/>
+      <c r="D90" s="11"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="4"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="22"/>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C91" s="3"/>
-      <c r="D91" s="13"/>
+      <c r="D91" s="11"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="4"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="22"/>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C92" s="3"/>
-      <c r="D92" s="13"/>
+      <c r="D92" s="11"/>
       <c r="E92" s="2"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="4"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="22"/>
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C93" s="3"/>
-      <c r="D93" s="13"/>
+      <c r="D93" s="11"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="4"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="22"/>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C94" s="3"/>
-      <c r="D94" s="13"/>
+      <c r="D94" s="11"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="4"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="22"/>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C95" s="3"/>
-      <c r="D95" s="13"/>
+      <c r="D95" s="11"/>
       <c r="E95" s="2"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="4"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="22"/>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C96" s="3"/>
-      <c r="D96" s="13"/>
+      <c r="D96" s="11"/>
       <c r="E96" s="2"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="4"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="22"/>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C97" s="3"/>
-      <c r="D97" s="13"/>
+      <c r="D97" s="11"/>
       <c r="E97" s="2"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="4"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="22"/>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C98" s="3"/>
-      <c r="D98" s="13"/>
+      <c r="D98" s="11"/>
       <c r="E98" s="2"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="4"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="22"/>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C99" s="3"/>
-      <c r="D99" s="13"/>
+      <c r="D99" s="11"/>
       <c r="E99" s="2"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="4"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="22"/>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C100" s="3"/>
-      <c r="D100" s="13"/>
+      <c r="D100" s="11"/>
       <c r="E100" s="2"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="4"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="22"/>
     </row>
     <row r="101" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C101" s="3"/>
-      <c r="D101" s="13"/>
+      <c r="D101" s="11"/>
       <c r="E101" s="2"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="4"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="22"/>
     </row>
     <row r="102" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C102" s="3"/>
-      <c r="D102" s="13"/>
+      <c r="D102" s="11"/>
       <c r="E102" s="2"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="4"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="22"/>
     </row>
     <row r="103" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C103" s="3"/>
-      <c r="D103" s="13"/>
+      <c r="D103" s="11"/>
       <c r="E103" s="2"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="4"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="22"/>
     </row>
     <row r="104" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C104" s="3"/>
-      <c r="D104" s="13"/>
+      <c r="D104" s="11"/>
       <c r="E104" s="2"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="4"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="22"/>
     </row>
     <row r="105" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C105" s="3"/>
-      <c r="D105" s="13"/>
+      <c r="D105" s="11"/>
       <c r="E105" s="2"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="4"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="22"/>
     </row>
     <row r="106" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C106" s="3"/>
-      <c r="D106" s="13"/>
+      <c r="D106" s="11"/>
       <c r="E106" s="2"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="4"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="22"/>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C107" s="3"/>
-      <c r="D107" s="13"/>
+      <c r="D107" s="11"/>
       <c r="E107" s="2"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="4"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="22"/>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C108" s="3"/>
-      <c r="D108" s="13"/>
+      <c r="D108" s="11"/>
       <c r="E108" s="2"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="4"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="22"/>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C109" s="3"/>
-      <c r="D109" s="13"/>
+      <c r="D109" s="11"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="4"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="22"/>
     </row>
     <row r="110" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C110" s="3"/>
-      <c r="D110" s="13"/>
+      <c r="D110" s="11"/>
       <c r="E110" s="2"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="4"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="22"/>
     </row>
     <row r="111" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C111" s="3"/>
-      <c r="D111" s="13"/>
+      <c r="D111" s="11"/>
       <c r="E111" s="2"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="4"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="22"/>
     </row>
     <row r="112" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C112" s="3"/>
-      <c r="D112" s="13"/>
+      <c r="D112" s="11"/>
       <c r="E112" s="2"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="4"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="22"/>
     </row>
     <row r="113" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C113" s="3"/>
-      <c r="D113" s="13"/>
+      <c r="D113" s="11"/>
       <c r="E113" s="2"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="4"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="22"/>
     </row>
     <row r="114" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C114" s="3"/>
-      <c r="D114" s="13"/>
+      <c r="D114" s="11"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="4"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="22"/>
     </row>
     <row r="115" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C115" s="3"/>
-      <c r="D115" s="13"/>
+      <c r="D115" s="11"/>
       <c r="E115" s="2"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="4"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="22"/>
     </row>
     <row r="116" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C116" s="3"/>
-      <c r="D116" s="13"/>
+      <c r="D116" s="11"/>
       <c r="E116" s="2"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="4"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="22"/>
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C117" s="3"/>
-      <c r="D117" s="13"/>
+      <c r="D117" s="11"/>
       <c r="E117" s="2"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="4"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="22"/>
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C118" s="3"/>
-      <c r="D118" s="13"/>
+      <c r="D118" s="11"/>
       <c r="E118" s="2"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="4"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="22"/>
     </row>
     <row r="119" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C119" s="3"/>
-      <c r="D119" s="13"/>
+      <c r="D119" s="11"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="4"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="22"/>
     </row>
     <row r="120" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C120" s="3"/>
-      <c r="D120" s="13"/>
+      <c r="D120" s="11"/>
       <c r="E120" s="2"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="4"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="22"/>
     </row>
     <row r="121" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C121" s="3"/>
-      <c r="D121" s="13"/>
+      <c r="D121" s="11"/>
       <c r="E121" s="2"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="4"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="22"/>
     </row>
     <row r="122" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C122" s="3"/>
-      <c r="D122" s="13"/>
+      <c r="D122" s="11"/>
       <c r="E122" s="2"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="4"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="22"/>
     </row>
     <row r="123" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C123" s="3"/>
-      <c r="D123" s="13"/>
+      <c r="D123" s="11"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="4"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="22"/>
     </row>
     <row r="124" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C124" s="3"/>
-      <c r="D124" s="13"/>
+      <c r="D124" s="11"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="4"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="22"/>
     </row>
     <row r="125" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C125" s="3"/>
-      <c r="D125" s="13"/>
+      <c r="D125" s="11"/>
       <c r="E125" s="2"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="4"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="22"/>
     </row>
     <row r="126" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C126" s="3"/>
-      <c r="D126" s="13"/>
+      <c r="D126" s="11"/>
       <c r="E126" s="2"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="4"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="22"/>
     </row>
     <row r="127" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C127" s="3"/>
-      <c r="D127" s="13"/>
+      <c r="D127" s="11"/>
       <c r="E127" s="2"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="4"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="22"/>
     </row>
     <row r="128" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C128" s="3"/>
-      <c r="D128" s="13"/>
+      <c r="D128" s="11"/>
       <c r="E128" s="2"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="4"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="22"/>
     </row>
     <row r="129" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C129" s="3"/>
-      <c r="D129" s="13"/>
+      <c r="D129" s="11"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="4"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="22"/>
     </row>
     <row r="130" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C130" s="3"/>
-      <c r="D130" s="13"/>
+      <c r="D130" s="11"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="4"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="22"/>
     </row>
     <row r="131" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C131" s="3"/>
-      <c r="D131" s="13"/>
+      <c r="D131" s="11"/>
       <c r="E131" s="2"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="4"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="22"/>
     </row>
     <row r="132" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C132" s="3"/>
-      <c r="D132" s="13"/>
+      <c r="D132" s="11"/>
       <c r="E132" s="2"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="4"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="22"/>
     </row>
     <row r="133" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C133" s="3"/>
-      <c r="D133" s="13"/>
+      <c r="D133" s="11"/>
       <c r="E133" s="2"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="4"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="22"/>
     </row>
     <row r="134" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C134" s="3"/>
-      <c r="D134" s="13"/>
+      <c r="D134" s="11"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="4"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="22"/>
     </row>
     <row r="135" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C135" s="3"/>
-      <c r="D135" s="13"/>
+      <c r="D135" s="11"/>
       <c r="E135" s="2"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="4"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="22"/>
     </row>
     <row r="136" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C136" s="3"/>
-      <c r="D136" s="13"/>
+      <c r="D136" s="11"/>
       <c r="E136" s="2"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="4"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="22"/>
     </row>
     <row r="137" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C137" s="3"/>
-      <c r="D137" s="13"/>
+      <c r="D137" s="11"/>
       <c r="E137" s="2"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="4"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="22"/>
     </row>
     <row r="138" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C138" s="3"/>
-      <c r="D138" s="13"/>
+      <c r="D138" s="11"/>
       <c r="E138" s="2"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="4"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="22"/>
     </row>
     <row r="139" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C139" s="3"/>
-      <c r="D139" s="13"/>
+      <c r="D139" s="11"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="4"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="22"/>
     </row>
     <row r="140" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C140" s="3"/>
-      <c r="D140" s="13"/>
+      <c r="D140" s="11"/>
       <c r="E140" s="2"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="4"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="22"/>
     </row>
     <row r="141" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C141" s="3"/>
-      <c r="D141" s="13"/>
+      <c r="D141" s="11"/>
       <c r="E141" s="2"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="4"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="22"/>
     </row>
     <row r="142" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C142" s="3"/>
-      <c r="D142" s="13"/>
+      <c r="D142" s="11"/>
       <c r="E142" s="2"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="4"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="22"/>
     </row>
     <row r="143" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C143" s="3"/>
-      <c r="D143" s="13"/>
+      <c r="D143" s="11"/>
       <c r="E143" s="2"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="4"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="22"/>
     </row>
     <row r="144" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C144" s="3"/>
-      <c r="D144" s="13"/>
+      <c r="D144" s="11"/>
       <c r="E144" s="2"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="4"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="22"/>
     </row>
     <row r="145" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C145" s="3"/>
-      <c r="D145" s="13"/>
+      <c r="D145" s="11"/>
       <c r="E145" s="2"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="4"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="22"/>
     </row>
     <row r="146" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C146" s="5"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="7"/>
+      <c r="C146" s="4"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{06CBA29C-6491-49EF-BA32-0376128C1A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E575F4D5-249E-4AD4-B23A-10A002FAAE21}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{06CBA29C-6491-49EF-BA32-0376128C1A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A67E7E23-E425-47E8-8781-533B4E6FF503}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="82">
   <si>
     <t>SlNo</t>
   </si>
@@ -259,6 +259,18 @@
   </si>
   <si>
     <t>update and Delete function (Demoproject)</t>
+  </si>
+  <si>
+    <t>Tresset Concepts(length,CompareTo)</t>
+  </si>
+  <si>
+    <t>Learing</t>
+  </si>
+  <si>
+    <t>Tresset sample progrem using Length and compareTo concepts</t>
+  </si>
+  <si>
+    <t>Leraing</t>
   </si>
 </sst>
 </file>
@@ -483,15 +495,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -503,6 +506,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9EF7C2-54DF-4460-B045-838F2FAAEF49}">
   <dimension ref="C2:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -830,7 +842,7 @@
     <col min="4" max="4" width="22.6640625" style="9" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="46.88671875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="40" style="20" customWidth="1"/>
+    <col min="7" max="7" width="40" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -838,13 +850,13 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="3:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="19"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C4" s="13" t="s">
@@ -859,7 +871,7 @@
       <c r="F4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -876,7 +888,7 @@
       <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -893,7 +905,7 @@
       <c r="F6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -910,7 +922,7 @@
       <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="19" t="s">
         <v>49</v>
       </c>
     </row>
@@ -927,7 +939,7 @@
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -944,7 +956,7 @@
       <c r="F9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="19" t="s">
         <v>15</v>
       </c>
     </row>
@@ -961,7 +973,7 @@
       <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -978,7 +990,7 @@
       <c r="F11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="19" t="s">
         <v>15</v>
       </c>
     </row>
@@ -995,7 +1007,7 @@
       <c r="F12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1012,7 +1024,7 @@
       <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="19" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1029,7 +1041,7 @@
       <c r="F14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1046,7 +1058,7 @@
       <c r="F15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1063,7 +1075,7 @@
       <c r="F16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1080,7 +1092,7 @@
       <c r="F17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1097,7 +1109,7 @@
       <c r="F18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="19" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1114,7 +1126,7 @@
       <c r="F19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="19" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1131,7 +1143,7 @@
       <c r="F20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1148,7 +1160,7 @@
       <c r="F21" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1165,7 +1177,7 @@
       <c r="F22" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G22" s="22"/>
+      <c r="G22" s="19"/>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
@@ -1180,7 +1192,7 @@
       <c r="F23" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1197,7 +1209,7 @@
       <c r="F24" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1214,7 +1226,7 @@
       <c r="F25" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1231,7 +1243,7 @@
       <c r="F26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1248,7 +1260,7 @@
       <c r="F27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1265,7 +1277,7 @@
       <c r="F28" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1282,7 +1294,7 @@
       <c r="F29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1299,7 +1311,7 @@
       <c r="F30" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1316,7 +1328,7 @@
       <c r="F31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1333,7 +1345,7 @@
       <c r="F32" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G32" s="22" t="s">
+      <c r="G32" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1350,7 +1362,7 @@
       <c r="F33" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1367,7 +1379,7 @@
       <c r="F34" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="19" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1384,7 +1396,7 @@
       <c r="F35" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1401,7 +1413,7 @@
       <c r="F36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1418,7 +1430,7 @@
       <c r="F37" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="19" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1435,7 +1447,7 @@
       <c r="F38" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1452,7 +1464,7 @@
       <c r="F39" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="19" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1469,7 +1481,7 @@
       <c r="F40" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1486,7 +1498,7 @@
       <c r="F41" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="22" t="s">
+      <c r="G41" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1503,7 +1515,7 @@
       <c r="F42" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G42" s="19" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1520,7 +1532,7 @@
       <c r="F43" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G43" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1537,7 +1549,7 @@
       <c r="F44" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G44" s="22" t="s">
+      <c r="G44" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1554,7 +1566,7 @@
       <c r="F45" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1571,7 +1583,7 @@
       <c r="F46" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="G46" s="22" t="s">
+      <c r="G46" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1588,7 +1600,7 @@
       <c r="F47" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G47" s="22" t="s">
+      <c r="G47" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1605,7 +1617,7 @@
       <c r="F48" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G48" s="22" t="s">
+      <c r="G48" s="19" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1622,7 +1634,7 @@
       <c r="F49" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G49" s="22" t="s">
+      <c r="G49" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1639,7 +1651,7 @@
       <c r="F50" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G50" s="22" t="s">
+      <c r="G50" s="19" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1656,7 +1668,7 @@
       <c r="F51" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G51" s="22" t="s">
+      <c r="G51" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1673,7 +1685,7 @@
       <c r="F52" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G52" s="19">
         <v>2</v>
       </c>
     </row>
@@ -1690,7 +1702,7 @@
       <c r="F53" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G53" s="22">
+      <c r="G53" s="19">
         <v>2</v>
       </c>
     </row>
@@ -1707,7 +1719,7 @@
       <c r="F54" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G54" s="22">
+      <c r="G54" s="19">
         <v>4</v>
       </c>
     </row>
@@ -1724,646 +1736,676 @@
       <c r="F55" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G55" s="22">
+      <c r="G55" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C56" s="3"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="22"/>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C57" s="3"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="22"/>
+      <c r="C56" s="3">
+        <v>52</v>
+      </c>
+      <c r="D56" s="10">
+        <v>44370</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56" s="19">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C57" s="3">
+        <v>53</v>
+      </c>
+      <c r="D57" s="10">
+        <v>44370</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G57" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="58" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C58" s="3"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="22"/>
+      <c r="C58" s="3">
+        <v>54</v>
+      </c>
+      <c r="D58" s="10">
+        <v>44370</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58" s="19">
+        <v>4</v>
+      </c>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C59" s="3"/>
       <c r="D59" s="11"/>
       <c r="E59" s="2"/>
       <c r="F59" s="7"/>
-      <c r="G59" s="22"/>
+      <c r="G59" s="19"/>
     </row>
     <row r="60" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C60" s="3"/>
       <c r="D60" s="11"/>
       <c r="E60" s="2"/>
       <c r="F60" s="7"/>
-      <c r="G60" s="22"/>
+      <c r="G60" s="19"/>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C61" s="3"/>
       <c r="D61" s="11"/>
       <c r="E61" s="2"/>
       <c r="F61" s="7"/>
-      <c r="G61" s="22"/>
+      <c r="G61" s="19"/>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C62" s="3"/>
       <c r="D62" s="11"/>
       <c r="E62" s="2"/>
       <c r="F62" s="7"/>
-      <c r="G62" s="22"/>
+      <c r="G62" s="19"/>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C63" s="3"/>
       <c r="D63" s="11"/>
       <c r="E63" s="2"/>
       <c r="F63" s="7"/>
-      <c r="G63" s="22"/>
+      <c r="G63" s="19"/>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C64" s="3"/>
       <c r="D64" s="11"/>
       <c r="E64" s="2"/>
       <c r="F64" s="7"/>
-      <c r="G64" s="22"/>
+      <c r="G64" s="19"/>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C65" s="3"/>
       <c r="D65" s="11"/>
       <c r="E65" s="2"/>
       <c r="F65" s="7"/>
-      <c r="G65" s="22"/>
+      <c r="G65" s="19"/>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C66" s="3"/>
       <c r="D66" s="11"/>
       <c r="E66" s="2"/>
       <c r="F66" s="7"/>
-      <c r="G66" s="22"/>
+      <c r="G66" s="19"/>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C67" s="3"/>
       <c r="D67" s="11"/>
       <c r="E67" s="2"/>
       <c r="F67" s="7"/>
-      <c r="G67" s="22"/>
+      <c r="G67" s="19"/>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C68" s="3"/>
       <c r="D68" s="11"/>
       <c r="E68" s="2"/>
       <c r="F68" s="7"/>
-      <c r="G68" s="22"/>
+      <c r="G68" s="19"/>
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C69" s="3"/>
       <c r="D69" s="11"/>
       <c r="E69" s="2"/>
       <c r="F69" s="7"/>
-      <c r="G69" s="22"/>
+      <c r="G69" s="19"/>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C70" s="3"/>
       <c r="D70" s="11"/>
       <c r="E70" s="2"/>
       <c r="F70" s="7"/>
-      <c r="G70" s="22"/>
+      <c r="G70" s="19"/>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C71" s="3"/>
       <c r="D71" s="11"/>
       <c r="E71" s="2"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="22"/>
+      <c r="G71" s="19"/>
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C72" s="3"/>
       <c r="D72" s="11"/>
       <c r="E72" s="2"/>
       <c r="F72" s="7"/>
-      <c r="G72" s="22"/>
+      <c r="G72" s="19"/>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C73" s="3"/>
       <c r="D73" s="11"/>
       <c r="E73" s="2"/>
       <c r="F73" s="7"/>
-      <c r="G73" s="22"/>
+      <c r="G73" s="19"/>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C74" s="3"/>
       <c r="D74" s="11"/>
       <c r="E74" s="2"/>
       <c r="F74" s="7"/>
-      <c r="G74" s="22"/>
+      <c r="G74" s="19"/>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C75" s="3"/>
       <c r="D75" s="11"/>
       <c r="E75" s="2"/>
       <c r="F75" s="7"/>
-      <c r="G75" s="22"/>
+      <c r="G75" s="19"/>
     </row>
     <row r="76" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C76" s="3"/>
       <c r="D76" s="11"/>
       <c r="E76" s="2"/>
       <c r="F76" s="7"/>
-      <c r="G76" s="22"/>
+      <c r="G76" s="19"/>
     </row>
     <row r="77" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C77" s="3"/>
       <c r="D77" s="11"/>
       <c r="E77" s="2"/>
       <c r="F77" s="7"/>
-      <c r="G77" s="22"/>
+      <c r="G77" s="19"/>
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C78" s="3"/>
       <c r="D78" s="11"/>
       <c r="E78" s="2"/>
       <c r="F78" s="7"/>
-      <c r="G78" s="22"/>
+      <c r="G78" s="19"/>
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C79" s="3"/>
       <c r="D79" s="11"/>
       <c r="E79" s="2"/>
       <c r="F79" s="7"/>
-      <c r="G79" s="22"/>
+      <c r="G79" s="19"/>
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C80" s="3"/>
       <c r="D80" s="11"/>
       <c r="E80" s="2"/>
       <c r="F80" s="7"/>
-      <c r="G80" s="22"/>
+      <c r="G80" s="19"/>
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C81" s="3"/>
       <c r="D81" s="11"/>
       <c r="E81" s="2"/>
       <c r="F81" s="7"/>
-      <c r="G81" s="22"/>
+      <c r="G81" s="19"/>
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C82" s="3"/>
       <c r="D82" s="11"/>
       <c r="E82" s="2"/>
       <c r="F82" s="7"/>
-      <c r="G82" s="22"/>
+      <c r="G82" s="19"/>
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C83" s="3"/>
       <c r="D83" s="11"/>
       <c r="E83" s="2"/>
       <c r="F83" s="7"/>
-      <c r="G83" s="22"/>
+      <c r="G83" s="19"/>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C84" s="3"/>
       <c r="D84" s="11"/>
       <c r="E84" s="2"/>
       <c r="F84" s="7"/>
-      <c r="G84" s="22"/>
+      <c r="G84" s="19"/>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C85" s="3"/>
       <c r="D85" s="11"/>
       <c r="E85" s="2"/>
       <c r="F85" s="7"/>
-      <c r="G85" s="22"/>
+      <c r="G85" s="19"/>
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C86" s="3"/>
       <c r="D86" s="11"/>
       <c r="E86" s="2"/>
       <c r="F86" s="7"/>
-      <c r="G86" s="22"/>
+      <c r="G86" s="19"/>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C87" s="3"/>
       <c r="D87" s="11"/>
       <c r="E87" s="2"/>
       <c r="F87" s="7"/>
-      <c r="G87" s="22"/>
+      <c r="G87" s="19"/>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C88" s="3"/>
       <c r="D88" s="11"/>
       <c r="E88" s="2"/>
       <c r="F88" s="7"/>
-      <c r="G88" s="22"/>
+      <c r="G88" s="19"/>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C89" s="3"/>
       <c r="D89" s="11"/>
       <c r="E89" s="2"/>
       <c r="F89" s="7"/>
-      <c r="G89" s="22"/>
+      <c r="G89" s="19"/>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C90" s="3"/>
       <c r="D90" s="11"/>
       <c r="E90" s="2"/>
       <c r="F90" s="7"/>
-      <c r="G90" s="22"/>
+      <c r="G90" s="19"/>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C91" s="3"/>
       <c r="D91" s="11"/>
       <c r="E91" s="2"/>
       <c r="F91" s="7"/>
-      <c r="G91" s="22"/>
+      <c r="G91" s="19"/>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C92" s="3"/>
       <c r="D92" s="11"/>
       <c r="E92" s="2"/>
       <c r="F92" s="7"/>
-      <c r="G92" s="22"/>
+      <c r="G92" s="19"/>
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C93" s="3"/>
       <c r="D93" s="11"/>
       <c r="E93" s="2"/>
       <c r="F93" s="7"/>
-      <c r="G93" s="22"/>
+      <c r="G93" s="19"/>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C94" s="3"/>
       <c r="D94" s="11"/>
       <c r="E94" s="2"/>
       <c r="F94" s="7"/>
-      <c r="G94" s="22"/>
+      <c r="G94" s="19"/>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C95" s="3"/>
       <c r="D95" s="11"/>
       <c r="E95" s="2"/>
       <c r="F95" s="7"/>
-      <c r="G95" s="22"/>
+      <c r="G95" s="19"/>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C96" s="3"/>
       <c r="D96" s="11"/>
       <c r="E96" s="2"/>
       <c r="F96" s="7"/>
-      <c r="G96" s="22"/>
+      <c r="G96" s="19"/>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C97" s="3"/>
       <c r="D97" s="11"/>
       <c r="E97" s="2"/>
       <c r="F97" s="7"/>
-      <c r="G97" s="22"/>
+      <c r="G97" s="19"/>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C98" s="3"/>
       <c r="D98" s="11"/>
       <c r="E98" s="2"/>
       <c r="F98" s="7"/>
-      <c r="G98" s="22"/>
+      <c r="G98" s="19"/>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C99" s="3"/>
       <c r="D99" s="11"/>
       <c r="E99" s="2"/>
       <c r="F99" s="7"/>
-      <c r="G99" s="22"/>
+      <c r="G99" s="19"/>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C100" s="3"/>
       <c r="D100" s="11"/>
       <c r="E100" s="2"/>
       <c r="F100" s="7"/>
-      <c r="G100" s="22"/>
+      <c r="G100" s="19"/>
     </row>
     <row r="101" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C101" s="3"/>
       <c r="D101" s="11"/>
       <c r="E101" s="2"/>
       <c r="F101" s="7"/>
-      <c r="G101" s="22"/>
+      <c r="G101" s="19"/>
     </row>
     <row r="102" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C102" s="3"/>
       <c r="D102" s="11"/>
       <c r="E102" s="2"/>
       <c r="F102" s="7"/>
-      <c r="G102" s="22"/>
+      <c r="G102" s="19"/>
     </row>
     <row r="103" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C103" s="3"/>
       <c r="D103" s="11"/>
       <c r="E103" s="2"/>
       <c r="F103" s="7"/>
-      <c r="G103" s="22"/>
+      <c r="G103" s="19"/>
     </row>
     <row r="104" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C104" s="3"/>
       <c r="D104" s="11"/>
       <c r="E104" s="2"/>
       <c r="F104" s="7"/>
-      <c r="G104" s="22"/>
+      <c r="G104" s="19"/>
     </row>
     <row r="105" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C105" s="3"/>
       <c r="D105" s="11"/>
       <c r="E105" s="2"/>
       <c r="F105" s="7"/>
-      <c r="G105" s="22"/>
+      <c r="G105" s="19"/>
     </row>
     <row r="106" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C106" s="3"/>
       <c r="D106" s="11"/>
       <c r="E106" s="2"/>
       <c r="F106" s="7"/>
-      <c r="G106" s="22"/>
+      <c r="G106" s="19"/>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C107" s="3"/>
       <c r="D107" s="11"/>
       <c r="E107" s="2"/>
       <c r="F107" s="7"/>
-      <c r="G107" s="22"/>
+      <c r="G107" s="19"/>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C108" s="3"/>
       <c r="D108" s="11"/>
       <c r="E108" s="2"/>
       <c r="F108" s="7"/>
-      <c r="G108" s="22"/>
+      <c r="G108" s="19"/>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C109" s="3"/>
       <c r="D109" s="11"/>
       <c r="E109" s="2"/>
       <c r="F109" s="7"/>
-      <c r="G109" s="22"/>
+      <c r="G109" s="19"/>
     </row>
     <row r="110" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C110" s="3"/>
       <c r="D110" s="11"/>
       <c r="E110" s="2"/>
       <c r="F110" s="7"/>
-      <c r="G110" s="22"/>
+      <c r="G110" s="19"/>
     </row>
     <row r="111" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C111" s="3"/>
       <c r="D111" s="11"/>
       <c r="E111" s="2"/>
       <c r="F111" s="7"/>
-      <c r="G111" s="22"/>
+      <c r="G111" s="19"/>
     </row>
     <row r="112" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C112" s="3"/>
       <c r="D112" s="11"/>
       <c r="E112" s="2"/>
       <c r="F112" s="7"/>
-      <c r="G112" s="22"/>
+      <c r="G112" s="19"/>
     </row>
     <row r="113" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C113" s="3"/>
       <c r="D113" s="11"/>
       <c r="E113" s="2"/>
       <c r="F113" s="7"/>
-      <c r="G113" s="22"/>
+      <c r="G113" s="19"/>
     </row>
     <row r="114" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C114" s="3"/>
       <c r="D114" s="11"/>
       <c r="E114" s="2"/>
       <c r="F114" s="7"/>
-      <c r="G114" s="22"/>
+      <c r="G114" s="19"/>
     </row>
     <row r="115" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C115" s="3"/>
       <c r="D115" s="11"/>
       <c r="E115" s="2"/>
       <c r="F115" s="7"/>
-      <c r="G115" s="22"/>
+      <c r="G115" s="19"/>
     </row>
     <row r="116" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C116" s="3"/>
       <c r="D116" s="11"/>
       <c r="E116" s="2"/>
       <c r="F116" s="7"/>
-      <c r="G116" s="22"/>
+      <c r="G116" s="19"/>
     </row>
     <row r="117" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C117" s="3"/>
       <c r="D117" s="11"/>
       <c r="E117" s="2"/>
       <c r="F117" s="7"/>
-      <c r="G117" s="22"/>
+      <c r="G117" s="19"/>
     </row>
     <row r="118" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C118" s="3"/>
       <c r="D118" s="11"/>
       <c r="E118" s="2"/>
       <c r="F118" s="7"/>
-      <c r="G118" s="22"/>
+      <c r="G118" s="19"/>
     </row>
     <row r="119" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C119" s="3"/>
       <c r="D119" s="11"/>
       <c r="E119" s="2"/>
       <c r="F119" s="7"/>
-      <c r="G119" s="22"/>
+      <c r="G119" s="19"/>
     </row>
     <row r="120" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C120" s="3"/>
       <c r="D120" s="11"/>
       <c r="E120" s="2"/>
       <c r="F120" s="7"/>
-      <c r="G120" s="22"/>
+      <c r="G120" s="19"/>
     </row>
     <row r="121" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C121" s="3"/>
       <c r="D121" s="11"/>
       <c r="E121" s="2"/>
       <c r="F121" s="7"/>
-      <c r="G121" s="22"/>
+      <c r="G121" s="19"/>
     </row>
     <row r="122" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C122" s="3"/>
       <c r="D122" s="11"/>
       <c r="E122" s="2"/>
       <c r="F122" s="7"/>
-      <c r="G122" s="22"/>
+      <c r="G122" s="19"/>
     </row>
     <row r="123" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C123" s="3"/>
       <c r="D123" s="11"/>
       <c r="E123" s="2"/>
       <c r="F123" s="7"/>
-      <c r="G123" s="22"/>
+      <c r="G123" s="19"/>
     </row>
     <row r="124" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C124" s="3"/>
       <c r="D124" s="11"/>
       <c r="E124" s="2"/>
       <c r="F124" s="7"/>
-      <c r="G124" s="22"/>
+      <c r="G124" s="19"/>
     </row>
     <row r="125" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C125" s="3"/>
       <c r="D125" s="11"/>
       <c r="E125" s="2"/>
       <c r="F125" s="7"/>
-      <c r="G125" s="22"/>
+      <c r="G125" s="19"/>
     </row>
     <row r="126" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C126" s="3"/>
       <c r="D126" s="11"/>
       <c r="E126" s="2"/>
       <c r="F126" s="7"/>
-      <c r="G126" s="22"/>
+      <c r="G126" s="19"/>
     </row>
     <row r="127" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C127" s="3"/>
       <c r="D127" s="11"/>
       <c r="E127" s="2"/>
       <c r="F127" s="7"/>
-      <c r="G127" s="22"/>
+      <c r="G127" s="19"/>
     </row>
     <row r="128" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C128" s="3"/>
       <c r="D128" s="11"/>
       <c r="E128" s="2"/>
       <c r="F128" s="7"/>
-      <c r="G128" s="22"/>
+      <c r="G128" s="19"/>
     </row>
     <row r="129" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C129" s="3"/>
       <c r="D129" s="11"/>
       <c r="E129" s="2"/>
       <c r="F129" s="7"/>
-      <c r="G129" s="22"/>
+      <c r="G129" s="19"/>
     </row>
     <row r="130" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C130" s="3"/>
       <c r="D130" s="11"/>
       <c r="E130" s="2"/>
       <c r="F130" s="7"/>
-      <c r="G130" s="22"/>
+      <c r="G130" s="19"/>
     </row>
     <row r="131" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C131" s="3"/>
       <c r="D131" s="11"/>
       <c r="E131" s="2"/>
       <c r="F131" s="7"/>
-      <c r="G131" s="22"/>
+      <c r="G131" s="19"/>
     </row>
     <row r="132" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C132" s="3"/>
       <c r="D132" s="11"/>
       <c r="E132" s="2"/>
       <c r="F132" s="7"/>
-      <c r="G132" s="22"/>
+      <c r="G132" s="19"/>
     </row>
     <row r="133" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C133" s="3"/>
       <c r="D133" s="11"/>
       <c r="E133" s="2"/>
       <c r="F133" s="7"/>
-      <c r="G133" s="22"/>
+      <c r="G133" s="19"/>
     </row>
     <row r="134" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C134" s="3"/>
       <c r="D134" s="11"/>
       <c r="E134" s="2"/>
       <c r="F134" s="7"/>
-      <c r="G134" s="22"/>
+      <c r="G134" s="19"/>
     </row>
     <row r="135" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C135" s="3"/>
       <c r="D135" s="11"/>
       <c r="E135" s="2"/>
       <c r="F135" s="7"/>
-      <c r="G135" s="22"/>
+      <c r="G135" s="19"/>
     </row>
     <row r="136" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C136" s="3"/>
       <c r="D136" s="11"/>
       <c r="E136" s="2"/>
       <c r="F136" s="7"/>
-      <c r="G136" s="22"/>
+      <c r="G136" s="19"/>
     </row>
     <row r="137" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C137" s="3"/>
       <c r="D137" s="11"/>
       <c r="E137" s="2"/>
       <c r="F137" s="7"/>
-      <c r="G137" s="22"/>
+      <c r="G137" s="19"/>
     </row>
     <row r="138" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C138" s="3"/>
       <c r="D138" s="11"/>
       <c r="E138" s="2"/>
       <c r="F138" s="7"/>
-      <c r="G138" s="22"/>
+      <c r="G138" s="19"/>
     </row>
     <row r="139" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C139" s="3"/>
       <c r="D139" s="11"/>
       <c r="E139" s="2"/>
       <c r="F139" s="7"/>
-      <c r="G139" s="22"/>
+      <c r="G139" s="19"/>
     </row>
     <row r="140" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C140" s="3"/>
       <c r="D140" s="11"/>
       <c r="E140" s="2"/>
       <c r="F140" s="7"/>
-      <c r="G140" s="22"/>
+      <c r="G140" s="19"/>
     </row>
     <row r="141" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C141" s="3"/>
       <c r="D141" s="11"/>
       <c r="E141" s="2"/>
       <c r="F141" s="7"/>
-      <c r="G141" s="22"/>
+      <c r="G141" s="19"/>
     </row>
     <row r="142" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C142" s="3"/>
       <c r="D142" s="11"/>
       <c r="E142" s="2"/>
       <c r="F142" s="7"/>
-      <c r="G142" s="22"/>
+      <c r="G142" s="19"/>
     </row>
     <row r="143" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C143" s="3"/>
       <c r="D143" s="11"/>
       <c r="E143" s="2"/>
       <c r="F143" s="7"/>
-      <c r="G143" s="22"/>
+      <c r="G143" s="19"/>
     </row>
     <row r="144" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C144" s="3"/>
       <c r="D144" s="11"/>
       <c r="E144" s="2"/>
       <c r="F144" s="7"/>
-      <c r="G144" s="22"/>
+      <c r="G144" s="19"/>
     </row>
     <row r="145" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C145" s="3"/>
       <c r="D145" s="11"/>
       <c r="E145" s="2"/>
       <c r="F145" s="7"/>
-      <c r="G145" s="22"/>
+      <c r="G145" s="19"/>
     </row>
     <row r="146" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C146" s="4"/>
       <c r="D146" s="12"/>
       <c r="E146" s="5"/>
       <c r="F146" s="8"/>
-      <c r="G146" s="23"/>
+      <c r="G146" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{06CBA29C-6491-49EF-BA32-0376128C1A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A67E7E23-E425-47E8-8781-533B4E6FF503}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{06CBA29C-6491-49EF-BA32-0376128C1A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75FDF9CB-A5CD-44CD-90D1-7C8E08FF080F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="85">
   <si>
     <t>SlNo</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>Leraing</t>
+  </si>
+  <si>
+    <t>java(HasMap,TreeSet,HashTable)</t>
+  </si>
+  <si>
+    <t>Jbpm(Gate way,Excluisve Gate Way,inclusive Gate,Paralla gate way</t>
+  </si>
+  <si>
+    <t>GateWay (Trying samall demo)</t>
   </si>
 </sst>
 </file>
@@ -832,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9EF7C2-54DF-4460-B045-838F2FAAEF49}">
   <dimension ref="C2:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1792,25 +1801,55 @@
       </c>
     </row>
     <row r="59" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C59" s="3"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="19"/>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C60" s="3"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="19"/>
+      <c r="C59" s="3">
+        <v>55</v>
+      </c>
+      <c r="D59" s="10">
+        <v>44371</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G59" s="19">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C60" s="3">
+        <v>56</v>
+      </c>
+      <c r="D60" s="10">
+        <v>44371</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G60" s="19">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="61" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C61" s="3"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="19"/>
+      <c r="C61" s="3">
+        <v>57</v>
+      </c>
+      <c r="D61" s="10">
+        <v>44371</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G61" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C62" s="3"/>
@@ -2412,5 +2451,6 @@
     <mergeCell ref="C3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{06CBA29C-6491-49EF-BA32-0376128C1A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75FDF9CB-A5CD-44CD-90D1-7C8E08FF080F}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{06CBA29C-6491-49EF-BA32-0376128C1A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3C4B045-E317-480D-B0F6-5DCD7DA2322D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
   <si>
     <t>SlNo</t>
   </si>
@@ -280,6 +280,18 @@
   </si>
   <si>
     <t>GateWay (Trying samall demo)</t>
+  </si>
+  <si>
+    <t>Advance java concepts</t>
+  </si>
+  <si>
+    <t>GateWay process</t>
+  </si>
+  <si>
+    <t>Advance javaConcepts,Servlet,html,Css</t>
+  </si>
+  <si>
+    <t>gateWay process</t>
   </si>
 </sst>
 </file>
@@ -841,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9EF7C2-54DF-4460-B045-838F2FAAEF49}">
   <dimension ref="C2:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1852,32 +1864,72 @@
       </c>
     </row>
     <row r="62" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C62" s="3"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="19"/>
+      <c r="C62" s="3">
+        <v>58</v>
+      </c>
+      <c r="D62" s="10">
+        <v>44372</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G62" s="19">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="63" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C63" s="3"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="19"/>
+      <c r="C63" s="3">
+        <v>59</v>
+      </c>
+      <c r="D63" s="10">
+        <v>44372</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G63" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="64" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C64" s="3"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="19"/>
+      <c r="C64" s="3">
+        <v>60</v>
+      </c>
+      <c r="D64" s="10">
+        <v>44372</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="65" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C65" s="3"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="19"/>
+      <c r="C65" s="3">
+        <v>61</v>
+      </c>
+      <c r="D65" s="10">
+        <v>44372</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65" s="19">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C66" s="3"/>

--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{06CBA29C-6491-49EF-BA32-0376128C1A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3C4B045-E317-480D-B0F6-5DCD7DA2322D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABE90FA-DACC-4B58-BC76-C39B33F28E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
   <si>
     <t>SlNo</t>
   </si>
@@ -292,6 +292,21 @@
   </si>
   <si>
     <t>gateWay process</t>
+  </si>
+  <si>
+    <t>Hashmap program,TreeMap, SQL,HTML, HashTable</t>
+  </si>
+  <si>
+    <t>Reuseable,Sub-Process (demo)</t>
+  </si>
+  <si>
+    <t>User Task,Multiinstance Task,</t>
+  </si>
+  <si>
+    <t>Embedded Sub-Process and Today task</t>
+  </si>
+  <si>
+    <t>SQL,HTML,CSS, basic Concepts</t>
   </si>
 </sst>
 </file>
@@ -851,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9EF7C2-54DF-4460-B045-838F2FAAEF49}">
-  <dimension ref="C2:G146"/>
+  <dimension ref="A2:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,11 +881,11 @@
     <col min="7" max="7" width="40" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="3:7" ht="21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="C3" s="21" t="s">
         <v>45</v>
       </c>
@@ -879,7 +894,7 @@
       <c r="F3" s="22"/>
       <c r="G3" s="23"/>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
@@ -896,7 +911,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="3">
         <v>1</v>
       </c>
@@ -913,7 +928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" s="3">
         <v>2</v>
       </c>
@@ -930,7 +945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>3</v>
       </c>
@@ -947,7 +962,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>4</v>
       </c>
@@ -964,7 +979,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
       <c r="C9" s="3">
         <v>5</v>
       </c>
@@ -981,7 +997,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
       <c r="C10" s="3">
         <v>6</v>
       </c>
@@ -998,7 +1015,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
       <c r="C11" s="3">
         <v>7</v>
       </c>
@@ -1015,7 +1033,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
       <c r="C12" s="3">
         <v>8</v>
       </c>
@@ -1032,7 +1051,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>9</v>
       </c>
@@ -1049,7 +1068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>10</v>
       </c>
@@ -1066,7 +1085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>11</v>
       </c>
@@ -1083,7 +1102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="3:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
         <v>12</v>
       </c>
@@ -1932,39 +1951,89 @@
       </c>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C66" s="3"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="19"/>
+      <c r="C66" s="3">
+        <v>62</v>
+      </c>
+      <c r="D66" s="10">
+        <v>44373</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C67" s="3"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="19"/>
+      <c r="C67" s="3">
+        <v>63</v>
+      </c>
+      <c r="D67" s="10">
+        <v>44373</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G67" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C68" s="3"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="19"/>
+      <c r="C68" s="3">
+        <v>64</v>
+      </c>
+      <c r="D68" s="10">
+        <v>44375</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G68" s="19">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C69" s="3"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="19"/>
+      <c r="C69" s="3">
+        <v>65</v>
+      </c>
+      <c r="D69" s="10">
+        <v>44375</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G69" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C70" s="3"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="19"/>
+      <c r="C70" s="3">
+        <v>66</v>
+      </c>
+      <c r="D70" s="10">
+        <v>44375</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G70" s="19">
+        <v>4</v>
+      </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C71" s="3"/>

--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABE90FA-DACC-4B58-BC76-C39B33F28E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{5ABE90FA-DACC-4B58-BC76-C39B33F28E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B42A8F08-0E6B-4E25-8EE7-0108EF54C812}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="100">
   <si>
     <t>SlNo</t>
   </si>
@@ -307,6 +307,24 @@
   </si>
   <si>
     <t>SQL,HTML,CSS, basic Concepts</t>
+  </si>
+  <si>
+    <t>Rest API (Response ,Request)</t>
+  </si>
+  <si>
+    <t>Java(Servlet concepts)</t>
+  </si>
+  <si>
+    <t>Signal(Start Signal and End signal ,Timer</t>
+  </si>
+  <si>
+    <t>Tranmg</t>
+  </si>
+  <si>
+    <t>Oracle dataBase and (JBPM signal process)</t>
+  </si>
+  <si>
+    <t>Servlet concepts</t>
   </si>
 </sst>
 </file>
@@ -868,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9EF7C2-54DF-4460-B045-838F2FAAEF49}">
   <dimension ref="A2:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2036,39 +2054,89 @@
       </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C71" s="3"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="19"/>
+      <c r="C71" s="3">
+        <v>67</v>
+      </c>
+      <c r="D71" s="10">
+        <v>44376</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G71" s="19">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="72" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C72" s="3"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="19"/>
+      <c r="C72" s="3">
+        <v>68</v>
+      </c>
+      <c r="D72" s="10">
+        <v>44376</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G72" s="19">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="73" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C73" s="3"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="19"/>
+      <c r="C73" s="3">
+        <v>69</v>
+      </c>
+      <c r="D73" s="10">
+        <v>44376</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G73" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C74" s="3"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="19"/>
+      <c r="C74" s="3">
+        <v>70</v>
+      </c>
+      <c r="D74" s="10">
+        <v>44376</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G74" s="19">
+        <v>4</v>
+      </c>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C75" s="3"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="19"/>
+      <c r="C75" s="3">
+        <v>71</v>
+      </c>
+      <c r="D75" s="10">
+        <v>44376</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G75" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="76" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C76" s="3"/>

--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{5ABE90FA-DACC-4B58-BC76-C39B33F28E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B42A8F08-0E6B-4E25-8EE7-0108EF54C812}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{5ABE90FA-DACC-4B58-BC76-C39B33F28E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC54FAD1-559B-410B-B466-FD2537F9617A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="106">
   <si>
     <t>SlNo</t>
   </si>
@@ -325,6 +325,24 @@
   </si>
   <si>
     <t>Servlet concepts</t>
+  </si>
+  <si>
+    <t>Spring Concepts</t>
+  </si>
+  <si>
+    <t>First demo project (Spring)</t>
+  </si>
+  <si>
+    <t>Traing</t>
+  </si>
+  <si>
+    <t>Controller uses and Spring Core Dependency in eclipse</t>
+  </si>
+  <si>
+    <t>Learing Maven and Spring</t>
+  </si>
+  <si>
+    <t>Laering</t>
   </si>
 </sst>
 </file>
@@ -886,8 +904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9EF7C2-54DF-4460-B045-838F2FAAEF49}">
   <dimension ref="A2:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2139,32 +2157,72 @@
       </c>
     </row>
     <row r="76" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C76" s="3"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="19"/>
+      <c r="C76" s="3">
+        <v>72</v>
+      </c>
+      <c r="D76" s="10">
+        <v>44377</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G76" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="77" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C77" s="3"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="19"/>
+      <c r="C77" s="3">
+        <v>73</v>
+      </c>
+      <c r="D77" s="10">
+        <v>44377</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G77" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="78" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C78" s="3"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="19"/>
+      <c r="C78" s="3">
+        <v>74</v>
+      </c>
+      <c r="D78" s="10">
+        <v>44377</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G78" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="79" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C79" s="3"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="19"/>
+      <c r="C79" s="3">
+        <v>75</v>
+      </c>
+      <c r="D79" s="10">
+        <v>44377</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G79" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C80" s="3"/>

--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{5ABE90FA-DACC-4B58-BC76-C39B33F28E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC54FAD1-559B-410B-B466-FD2537F9617A}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{5ABE90FA-DACC-4B58-BC76-C39B33F28E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC62C5A7-6497-4BB1-8B0B-EE1FC47ECBE0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="107">
   <si>
     <t>SlNo</t>
   </si>
@@ -318,9 +318,6 @@
     <t>Signal(Start Signal and End signal ,Timer</t>
   </si>
   <si>
-    <t>Tranmg</t>
-  </si>
-  <si>
     <t>Oracle dataBase and (JBPM signal process)</t>
   </si>
   <si>
@@ -333,16 +330,22 @@
     <t>First demo project (Spring)</t>
   </si>
   <si>
-    <t>Traing</t>
-  </si>
-  <si>
     <t>Controller uses and Spring Core Dependency in eclipse</t>
   </si>
   <si>
     <t>Learing Maven and Spring</t>
   </si>
   <si>
-    <t>Laering</t>
+    <t>JBPM(rest Api and Email))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learing Rest Api </t>
+  </si>
+  <si>
+    <t>Learing Spring boot and Spring (demo)</t>
+  </si>
+  <si>
+    <t>Laerning</t>
   </si>
 </sst>
 </file>
@@ -905,7 +908,7 @@
   <dimension ref="A2:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1960,7 +1963,7 @@
         <v>44372</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>87</v>
@@ -1977,7 +1980,7 @@
         <v>44372</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>88</v>
@@ -1994,7 +1997,7 @@
         <v>44373</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>89</v>
@@ -2011,7 +2014,7 @@
         <v>44373</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>90</v>
@@ -2045,7 +2048,7 @@
         <v>44375</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>92</v>
@@ -2062,7 +2065,7 @@
         <v>44375</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>93</v>
@@ -2113,7 +2116,7 @@
         <v>44376</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>96</v>
@@ -2130,10 +2133,10 @@
         <v>44376</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G74" s="19">
         <v>4</v>
@@ -2147,10 +2150,10 @@
         <v>44376</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G75" s="19">
         <v>2</v>
@@ -2167,7 +2170,7 @@
         <v>50</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G76" s="19">
         <v>2</v>
@@ -2181,10 +2184,10 @@
         <v>44377</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G77" s="19">
         <v>3</v>
@@ -2201,7 +2204,7 @@
         <v>50</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G78" s="19">
         <v>3</v>
@@ -2215,35 +2218,65 @@
         <v>44377</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G79" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C80" s="3"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="19"/>
+      <c r="C80" s="3">
+        <v>76</v>
+      </c>
+      <c r="D80" s="10">
+        <v>44378</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G80" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="81" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C81" s="3"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="19"/>
+      <c r="C81" s="3">
+        <v>77</v>
+      </c>
+      <c r="D81" s="10">
+        <v>44378</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G81" s="19">
+        <v>4</v>
+      </c>
     </row>
     <row r="82" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C82" s="3"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="19"/>
+      <c r="C82" s="3">
+        <v>78</v>
+      </c>
+      <c r="D82" s="10">
+        <v>44378</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G82" s="19">
+        <v>4</v>
+      </c>
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C83" s="3"/>

--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{5ABE90FA-DACC-4B58-BC76-C39B33F28E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC62C5A7-6497-4BB1-8B0B-EE1FC47ECBE0}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{5ABE90FA-DACC-4B58-BC76-C39B33F28E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF727636-06A5-4D4C-8BDF-85757ED19B67}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="110">
   <si>
     <t>SlNo</t>
   </si>
@@ -346,6 +346,15 @@
   </si>
   <si>
     <t>Laerning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint  basic Concepts </t>
+  </si>
+  <si>
+    <t>JBPM (Uplading and Deploye function )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leraing java spring boot concepts and install setup </t>
   </si>
 </sst>
 </file>
@@ -907,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9EF7C2-54DF-4460-B045-838F2FAAEF49}">
   <dimension ref="A2:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2279,25 +2288,55 @@
       </c>
     </row>
     <row r="83" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C83" s="3"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="19"/>
+      <c r="C83" s="3">
+        <v>79</v>
+      </c>
+      <c r="D83" s="10">
+        <v>44379</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G83" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="84" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C84" s="3"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="19"/>
+      <c r="C84" s="3">
+        <v>80</v>
+      </c>
+      <c r="D84" s="10">
+        <v>44349</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G84" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="85" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C85" s="3"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="19"/>
+      <c r="C85" s="3">
+        <v>81</v>
+      </c>
+      <c r="D85" s="10">
+        <v>44349</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G85" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C86" s="3"/>

--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{5ABE90FA-DACC-4B58-BC76-C39B33F28E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF727636-06A5-4D4C-8BDF-85757ED19B67}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{5ABE90FA-DACC-4B58-BC76-C39B33F28E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E03600EC-D679-4442-8509-2240E641822A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="113">
   <si>
     <t>SlNo</t>
   </si>
@@ -355,6 +355,15 @@
   </si>
   <si>
     <t xml:space="preserve">Leraing java spring boot concepts and install setup </t>
+  </si>
+  <si>
+    <t>Spring Boot and Install the configuration</t>
+  </si>
+  <si>
+    <t>Rest API(Post man )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rest API(jbpm) Concepts</t>
   </si>
 </sst>
 </file>
@@ -916,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9EF7C2-54DF-4460-B045-838F2FAAEF49}">
   <dimension ref="A2:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2339,25 +2348,55 @@
       </c>
     </row>
     <row r="86" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C86" s="3"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="19"/>
+      <c r="C86" s="3">
+        <v>82</v>
+      </c>
+      <c r="D86" s="10">
+        <v>44352</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G86" s="19">
+        <v>4</v>
+      </c>
     </row>
     <row r="87" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C87" s="3"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="19"/>
+      <c r="C87" s="3">
+        <v>83</v>
+      </c>
+      <c r="D87" s="10">
+        <v>44352</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G87" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="88" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C88" s="3"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="19"/>
+      <c r="C88" s="3">
+        <v>84</v>
+      </c>
+      <c r="D88" s="10">
+        <v>44352</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G88" s="19">
+        <v>4</v>
+      </c>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C89" s="3"/>

--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{5ABE90FA-DACC-4B58-BC76-C39B33F28E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E03600EC-D679-4442-8509-2240E641822A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A74AE92-85DA-4226-9024-9CF2DC731EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="116">
   <si>
     <t>SlNo</t>
   </si>
@@ -364,6 +364,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Rest API(jbpm) Concepts</t>
+  </si>
+  <si>
+    <t>Drools and Java Spring concepts</t>
+  </si>
+  <si>
+    <t>Drools Install and demo program</t>
+  </si>
+  <si>
+    <t>Spring Annotation learing</t>
   </si>
 </sst>
 </file>
@@ -925,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9EF7C2-54DF-4460-B045-838F2FAAEF49}">
   <dimension ref="A2:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1420,7 +1429,7 @@
         <v>44361</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>51</v>
@@ -1471,7 +1480,7 @@
         <v>44362</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>52</v>
@@ -1522,7 +1531,7 @@
         <v>44363</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>57</v>
@@ -1573,7 +1582,7 @@
         <v>44364</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>54</v>
@@ -1590,7 +1599,7 @@
         <v>44364</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>62</v>
@@ -1624,7 +1633,7 @@
         <v>44365</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>65</v>
@@ -1675,7 +1684,7 @@
         <v>44366</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>68</v>
@@ -1692,7 +1701,7 @@
         <v>44366</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>69</v>
@@ -2049,7 +2058,7 @@
         <v>44375</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>91</v>
@@ -2100,7 +2109,7 @@
         <v>44376</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>94</v>
@@ -2117,7 +2126,7 @@
         <v>44376</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>95</v>
@@ -2134,7 +2143,7 @@
         <v>44376</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>96</v>
@@ -2185,7 +2194,7 @@
         <v>44377</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>99</v>
@@ -2202,7 +2211,7 @@
         <v>44377</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>100</v>
@@ -2219,7 +2228,7 @@
         <v>44377</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>101</v>
@@ -2253,7 +2262,7 @@
         <v>44378</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>103</v>
@@ -2304,7 +2313,7 @@
         <v>44379</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>107</v>
@@ -2318,10 +2327,10 @@
         <v>80</v>
       </c>
       <c r="D84" s="10">
-        <v>44349</v>
+        <v>44379</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>108</v>
@@ -2335,7 +2344,7 @@
         <v>81</v>
       </c>
       <c r="D85" s="10">
-        <v>44349</v>
+        <v>44379</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>79</v>
@@ -2352,7 +2361,7 @@
         <v>82</v>
       </c>
       <c r="D86" s="10">
-        <v>44352</v>
+        <v>44382</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>79</v>
@@ -2369,7 +2378,7 @@
         <v>83</v>
       </c>
       <c r="D87" s="10">
-        <v>44352</v>
+        <v>44382</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>79</v>
@@ -2386,7 +2395,7 @@
         <v>84</v>
       </c>
       <c r="D88" s="10">
-        <v>44352</v>
+        <v>44382</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>50</v>
@@ -2399,25 +2408,55 @@
       </c>
     </row>
     <row r="89" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C89" s="3"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="19"/>
+      <c r="C89" s="3">
+        <v>85</v>
+      </c>
+      <c r="D89" s="10">
+        <v>44383</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G89" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="90" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C90" s="3"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="19"/>
+      <c r="C90" s="3">
+        <v>86</v>
+      </c>
+      <c r="D90" s="10">
+        <v>44353</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G90" s="19">
+        <v>4</v>
+      </c>
     </row>
     <row r="91" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C91" s="3"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="19"/>
+      <c r="C91" s="3">
+        <v>87</v>
+      </c>
+      <c r="D91" s="10">
+        <v>44353</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G91" s="19">
+        <v>4</v>
+      </c>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C92" s="3"/>

--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A74AE92-85DA-4226-9024-9CF2DC731EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{2A74AE92-85DA-4226-9024-9CF2DC731EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADA91A11-64F1-4D90-BFDF-A1F1D95154C5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="119">
   <si>
     <t>SlNo</t>
   </si>
@@ -373,6 +373,15 @@
   </si>
   <si>
     <t>Spring Annotation learing</t>
+  </si>
+  <si>
+    <t>Spring Boot Annotation</t>
+  </si>
+  <si>
+    <t>Email and Rest API (demo project)</t>
+  </si>
+  <si>
+    <t>Spring boot rest Api and Postman Tool</t>
   </si>
 </sst>
 </file>
@@ -934,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9EF7C2-54DF-4460-B045-838F2FAAEF49}">
   <dimension ref="A2:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2429,7 +2438,7 @@
         <v>86</v>
       </c>
       <c r="D90" s="10">
-        <v>44353</v>
+        <v>44383</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>9</v>
@@ -2446,7 +2455,7 @@
         <v>87</v>
       </c>
       <c r="D91" s="10">
-        <v>44353</v>
+        <v>44383</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>9</v>
@@ -2459,25 +2468,55 @@
       </c>
     </row>
     <row r="92" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C92" s="3"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="19"/>
+      <c r="C92" s="3">
+        <v>88</v>
+      </c>
+      <c r="D92" s="10">
+        <v>44384</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G92" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="93" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C93" s="3"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="19"/>
+      <c r="C93" s="3">
+        <v>89</v>
+      </c>
+      <c r="D93" s="10">
+        <v>44384</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G93" s="19">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="94" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C94" s="3"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="19"/>
+      <c r="C94" s="3">
+        <v>90</v>
+      </c>
+      <c r="D94" s="10">
+        <v>44384</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G94" s="19">
+        <v>6</v>
+      </c>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C95" s="3"/>

--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{2A74AE92-85DA-4226-9024-9CF2DC731EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADA91A11-64F1-4D90-BFDF-A1F1D95154C5}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{2A74AE92-85DA-4226-9024-9CF2DC731EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FEAB83A-4CA3-4964-AB73-CC4E97C1410E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="124">
   <si>
     <t>SlNo</t>
   </si>
@@ -382,6 +382,21 @@
   </si>
   <si>
     <t>Spring boot rest Api and Postman Tool</t>
+  </si>
+  <si>
+    <t>RestTemplate Concepts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learning </t>
+  </si>
+  <si>
+    <t>PostMan Rest Api</t>
+  </si>
+  <si>
+    <t>Spring boot (annotation)</t>
+  </si>
+  <si>
+    <t>JBPM demo project(Email)</t>
   </si>
 </sst>
 </file>
@@ -944,7 +959,7 @@
   <dimension ref="A2:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2520,31 +2535,63 @@
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C95" s="3"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="19"/>
+      <c r="D95" s="10">
+        <v>44385</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G95" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C96" s="3"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="19"/>
+      <c r="D96" s="10">
+        <v>44385</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G96" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C97" s="3"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="19"/>
+      <c r="D97" s="10">
+        <v>44385</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G97" s="19">
+        <v>4</v>
+      </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C98" s="3"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="19"/>
+      <c r="D98" s="10">
+        <v>44385</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G98" s="19">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C99" s="3"/>

--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{2A74AE92-85DA-4226-9024-9CF2DC731EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FEAB83A-4CA3-4964-AB73-CC4E97C1410E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2436A025-89DB-4E41-BA39-BC30D996BCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="129">
   <si>
     <t>SlNo</t>
   </si>
@@ -397,6 +397,21 @@
   </si>
   <si>
     <t>JBPM demo project(Email)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learing </t>
+  </si>
+  <si>
+    <t>JBPM(demo project workflow)</t>
+  </si>
+  <si>
+    <t>SpringBoot and Rest Api</t>
+  </si>
+  <si>
+    <t>JBPM(HR process)project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Api and Postman </t>
   </si>
 </sst>
 </file>
@@ -959,7 +974,7 @@
   <dimension ref="A2:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+      <selection activeCell="G106" sqref="G106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2534,7 +2549,9 @@
       </c>
     </row>
     <row r="95" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C95" s="3"/>
+      <c r="C95" s="3">
+        <v>91</v>
+      </c>
       <c r="D95" s="10">
         <v>44385</v>
       </c>
@@ -2549,7 +2566,9 @@
       </c>
     </row>
     <row r="96" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C96" s="3"/>
+      <c r="C96" s="3">
+        <v>92</v>
+      </c>
       <c r="D96" s="10">
         <v>44385</v>
       </c>
@@ -2564,7 +2583,9 @@
       </c>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C97" s="3"/>
+      <c r="C97" s="3">
+        <v>93</v>
+      </c>
       <c r="D97" s="10">
         <v>44385</v>
       </c>
@@ -2579,7 +2600,9 @@
       </c>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C98" s="3"/>
+      <c r="C98" s="3">
+        <v>94</v>
+      </c>
       <c r="D98" s="10">
         <v>44385</v>
       </c>
@@ -2594,32 +2617,72 @@
       </c>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C99" s="3"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="19"/>
+      <c r="C99" s="3">
+        <v>95</v>
+      </c>
+      <c r="D99" s="10">
+        <v>44386</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G99" s="19">
+        <v>6</v>
+      </c>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C100" s="3"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="19"/>
+      <c r="C100" s="3">
+        <v>96</v>
+      </c>
+      <c r="D100" s="10">
+        <v>44386</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G100" s="19">
+        <v>4</v>
+      </c>
     </row>
     <row r="101" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C101" s="3"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="19"/>
+      <c r="C101" s="3">
+        <v>97</v>
+      </c>
+      <c r="D101" s="10">
+        <v>44387</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G101" s="19">
+        <v>7</v>
+      </c>
     </row>
     <row r="102" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C102" s="3"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="19"/>
+      <c r="C102" s="3">
+        <v>98</v>
+      </c>
+      <c r="D102" s="10">
+        <v>44387</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G102" s="19">
+        <v>2</v>
+      </c>
     </row>
     <row r="103" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C103" s="3"/>

--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2436A025-89DB-4E41-BA39-BC30D996BCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4292D0F1-FC7D-4CC3-9C80-C157F139C04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="132">
   <si>
     <t>SlNo</t>
   </si>
@@ -412,6 +412,15 @@
   </si>
   <si>
     <t xml:space="preserve">Api and Postman </t>
+  </si>
+  <si>
+    <t>JBPM api program</t>
+  </si>
+  <si>
+    <t>JBPM meeting for Kie server deploy</t>
+  </si>
+  <si>
+    <t>JBPM  Interview Qusetion Review</t>
   </si>
 </sst>
 </file>
@@ -974,7 +983,7 @@
   <dimension ref="A2:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="G106" sqref="G106"/>
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2685,25 +2694,55 @@
       </c>
     </row>
     <row r="103" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C103" s="3"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="19"/>
+      <c r="C103" s="3">
+        <v>99</v>
+      </c>
+      <c r="D103" s="10">
+        <v>44389</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G103" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="104" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C104" s="3"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="19"/>
+      <c r="C104" s="3">
+        <v>100</v>
+      </c>
+      <c r="D104" s="10">
+        <v>44389</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G104" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="105" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C105" s="3"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="19"/>
+      <c r="C105" s="3">
+        <v>101</v>
+      </c>
+      <c r="D105" s="10">
+        <v>44389</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G105" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="106" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C106" s="3"/>

--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4292D0F1-FC7D-4CC3-9C80-C157F139C04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{4292D0F1-FC7D-4CC3-9C80-C157F139C04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21A156F3-065B-4D82-AF85-0E0944050F9B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="134">
   <si>
     <t>SlNo</t>
   </si>
@@ -421,6 +421,12 @@
   </si>
   <si>
     <t>JBPM  Interview Qusetion Review</t>
+  </si>
+  <si>
+    <t>JBPM project (Kie server)</t>
+  </si>
+  <si>
+    <t>Spring rest API and JBPM project</t>
   </si>
 </sst>
 </file>
@@ -982,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9EF7C2-54DF-4460-B045-838F2FAAEF49}">
   <dimension ref="A2:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2732,7 +2738,7 @@
         <v>101</v>
       </c>
       <c r="D105" s="10">
-        <v>44389</v>
+        <v>44390</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>79</v>
@@ -2745,18 +2751,38 @@
       </c>
     </row>
     <row r="106" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C106" s="3"/>
-      <c r="D106" s="11"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="19"/>
+      <c r="C106" s="3">
+        <v>102</v>
+      </c>
+      <c r="D106" s="10">
+        <v>44390</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G106" s="19">
+        <v>6</v>
+      </c>
     </row>
     <row r="107" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C107" s="3"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="19"/>
+      <c r="C107" s="3">
+        <v>103</v>
+      </c>
+      <c r="D107" s="10">
+        <v>44390</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G107" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="108" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C108" s="3"/>

--- a/Vinothini/TIME.sheet.xlsx
+++ b/Vinothini/TIME.sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2e5192d89ea27e4b/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{4292D0F1-FC7D-4CC3-9C80-C157F139C04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21A156F3-065B-4D82-AF85-0E0944050F9B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D0946E-48A0-4E69-A614-8DC399E19E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1B9685D9-1DA2-41DD-9D0D-A0858047D478}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="138">
   <si>
     <t>SlNo</t>
   </si>
@@ -399,9 +399,6 @@
     <t>JBPM demo project(Email)</t>
   </si>
   <si>
-    <t xml:space="preserve">Learing </t>
-  </si>
-  <si>
     <t>JBPM(demo project workflow)</t>
   </si>
   <si>
@@ -427,6 +424,21 @@
   </si>
   <si>
     <t>Spring rest API and JBPM project</t>
+  </si>
+  <si>
+    <t>Core Java Concept</t>
+  </si>
+  <si>
+    <t>Spring boot and Maven project</t>
+  </si>
+  <si>
+    <t>Spring Boot and API test</t>
+  </si>
+  <si>
+    <t>Learning JBPM interview Question and Answer</t>
+  </si>
+  <si>
+    <t>Learning Java nd Spring Boot</t>
   </si>
 </sst>
 </file>
@@ -989,7 +1001,7 @@
   <dimension ref="A2:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2639,10 +2651,10 @@
         <v>44386</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="G99" s="19">
         <v>6</v>
@@ -2656,10 +2668,10 @@
         <v>44386</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G100" s="19">
         <v>4</v>
@@ -2673,10 +2685,10 @@
         <v>44387</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G101" s="19">
         <v>7</v>
@@ -2690,10 +2702,10 @@
         <v>44387</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G102" s="19">
         <v>2</v>
@@ -2707,10 +2719,10 @@
         <v>44389</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G103" s="19">
         <v>3</v>
@@ -2727,7 +2739,7 @@
         <v>5</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G104" s="19">
         <v>5</v>
@@ -2741,10 +2753,10 @@
         <v>44390</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G105" s="19">
         <v>3</v>
@@ -2761,7 +2773,7 @@
         <v>5</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G106" s="19">
         <v>6</v>
@@ -2775,49 +2787,99 @@
         <v>44390</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="F107" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G107" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C108" s="3">
+        <v>104</v>
+      </c>
+      <c r="D108" s="10">
+        <v>44391</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="G107" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C108" s="3"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="19"/>
+      <c r="G108" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="109" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C109" s="3"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="19"/>
+      <c r="C109" s="3">
+        <v>105</v>
+      </c>
+      <c r="D109" s="10">
+        <v>44391</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G109" s="19">
+        <v>3</v>
+      </c>
     </row>
     <row r="110" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C110" s="3"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="19"/>
+      <c r="C110" s="3">
+        <v>106</v>
+      </c>
+      <c r="D110" s="10">
+        <v>44391</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G110" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="111" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C111" s="3"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="19"/>
+      <c r="C111" s="3">
+        <v>107</v>
+      </c>
+      <c r="D111" s="10">
+        <v>44392</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G111" s="19">
+        <v>5</v>
+      </c>
     </row>
     <row r="112" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C112" s="3"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="19"/>
+      <c r="C112" s="3">
+        <v>108</v>
+      </c>
+      <c r="D112" s="10">
+        <v>44392</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G112" s="19">
+        <v>7</v>
+      </c>
     </row>
     <row r="113" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C113" s="3"/>
